--- a/individual_results/avey/28.xlsx
+++ b/individual_results/avey/28.xlsx
@@ -558,7 +558,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E2" t="n">
         <v>0.2</v>
@@ -570,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I2" t="n">
         <v>0.3333333333333333</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="P2" t="n">
         <v>0.125</v>
@@ -600,7 +600,7 @@
         <v>0.2</v>
       </c>
       <c r="R2" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -631,7 +631,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E3" t="n">
         <v>0.5</v>
@@ -643,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I3" t="n">
         <v>0.5</v>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P3" t="n">
         <v>0.5</v>
@@ -673,7 +673,7 @@
         <v>0.5</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -702,7 +702,7 @@
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>0.5714285714285715</v>
+        <v>0.2857142857142858</v>
       </c>
       <c r="E4" t="n">
         <v>0.2857142857142858</v>
@@ -712,7 +712,7 @@
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="I4" t="n">
         <v>0.4</v>
@@ -725,7 +725,7 @@
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
-        <v>0.5714285714285715</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="P4" t="n">
         <v>0.2</v>
@@ -733,9 +733,7 @@
       <c r="Q4" t="n">
         <v>0.2857142857142858</v>
       </c>
-      <c r="R4" t="n">
-        <v>0.3333333333333333</v>
-      </c>
+      <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="n">
         <v>0.5</v>
@@ -761,7 +759,7 @@
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>0.7692307692307692</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="E5" t="n">
         <v>0.3846153846153846</v>
@@ -771,7 +769,7 @@
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="I5" t="n">
         <v>0.4545454545454545</v>
@@ -784,7 +782,7 @@
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>0.7692307692307692</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="P5" t="n">
         <v>0.3125</v>
@@ -792,9 +790,7 @@
       <c r="Q5" t="n">
         <v>0.3846153846153846</v>
       </c>
-      <c r="R5" t="n">
-        <v>0.4166666666666667</v>
-      </c>
+      <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="n">
         <v>0.5</v>
@@ -822,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.8262346571285599</v>
       </c>
       <c r="E6" t="n">
         <v>0.8262346571285599</v>
@@ -834,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7967075809905066</v>
+        <v>0.2754115523761866</v>
       </c>
       <c r="I6" t="n">
         <v>0.2754115523761866</v>
@@ -855,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4491768952476267</v>
+        <v>0.2754115523761866</v>
       </c>
       <c r="P6" t="n">
         <v>0.52129602861432</v>
@@ -864,7 +860,7 @@
         <v>0.52129602861432</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1377057761880933</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -980,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
@@ -1053,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
@@ -1121,9 +1117,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -1186,7 +1180,7 @@
         <v>1.5</v>
       </c>
       <c r="O11" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="P11" t="n">
         <v>4</v>
